--- a/doc/searchInformationRESTAPI(1).xlsx
+++ b/doc/searchInformationRESTAPI(1).xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuang/WebstormProjects/s17-ESN-SV7/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Search Information RESTful API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +77,42 @@
   <si>
     <t>{success:1, data: [..]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/groupchat</t>
+  </si>
+  <si>
+    <t>/groupchat/:username</t>
+  </si>
+  <si>
+    <t>/groupchat/join</t>
+  </si>
+  <si>
+    <t>/groupchat/leave</t>
+  </si>
+  <si>
+    <t>/groupchat/create</t>
+  </si>
+  <si>
+    <t>/groupchat/message/:group</t>
+  </si>
+  <si>
+    <t>/groupchat/message</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>username group</t>
+  </si>
+  <si>
+    <t>username group message</t>
+  </si>
+  <si>
+    <t>{success:1, data: [..]}</t>
   </si>
 </sst>
 </file>
@@ -79,14 +123,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -95,7 +139,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -104,7 +148,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,12 +180,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -467,23 +516,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -497,7 +546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -511,7 +560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -525,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -539,7 +588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -553,7 +602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -564,6 +613,101 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -571,10 +715,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/searchInformationRESTAPI(1).xlsx
+++ b/doc/searchInformationRESTAPI(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="24720" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Search Information RESTful API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>{success:1, data: [..]}</t>
+  </si>
+  <si>
+    <t>get all group list</t>
+  </si>
+  <si>
+    <t>get my group list</t>
+  </si>
+  <si>
+    <t>join a group</t>
+  </si>
+  <si>
+    <t>leave a group</t>
+  </si>
+  <si>
+    <t>create a group</t>
+  </si>
+  <si>
+    <t>get all messages of a group</t>
+  </si>
+  <si>
+    <t>post a messge in a group</t>
   </si>
 </sst>
 </file>
@@ -125,7 +146,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,198 +536,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>13</v>
       </c>
     </row>
